--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_19_25.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_19_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1463040.417901698</v>
+        <v>1460788.33819049</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283198</v>
+        <v>416855.1052283189</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -665,10 +665,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -677,7 +677,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>214.6649597713308</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>108.2462644793336</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,19 +823,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>71.49367430371757</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -877,13 +877,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>108.549119697934</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,7 +896,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -905,16 +905,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>401.5764851263139</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -956,13 +956,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>357.5738180516817</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824781</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1060,13 +1060,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>115.8416516122276</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>81.58403242496193</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -1111,16 +1111,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,7 +1133,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1145,13 +1145,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>94.78386292820116</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>41.41379075544855</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1190,16 +1190,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1300,13 +1300,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>1.89717711244757</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1339,22 +1339,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>157.7822070347172</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1376,7 +1376,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722596</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1528,13 +1528,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1543,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>41.74133133758718</v>
+        <v>103.1686991936202</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1667,7 +1667,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>102.1557845699822</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>90.48716302792806</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1904,7 +1904,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>13.79222725775175</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2008,19 +2008,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>99.97427419833636</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892458</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2141,7 +2141,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2245,16 +2245,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>9.146142788179368</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699795</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016463</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>140.3074752009589</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2612,7 +2612,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2719,19 +2719,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>31.26260713376563</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>0.8253826161906772</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428169</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3187,16 +3187,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>101.6969570046953</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3238,7 +3238,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>217.40545032729</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3427,19 +3427,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>49.48749137895321</v>
+        <v>103.1686991936176</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>145.421048022933</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3481,7 +3481,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3664,16 +3664,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>27.02919805176109</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -4138,19 +4138,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>19.91555826189063</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2345.167438673965</v>
+        <v>1555.338782035317</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1186.376265094905</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
         <v>821.1650657389509</v>
@@ -4325,55 +4325,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>3108.772528910857</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>3108.772528910857</v>
+        <v>2315.404380360518</v>
       </c>
       <c r="X2" t="n">
-        <v>2735.306770649777</v>
+        <v>1941.938622099438</v>
       </c>
       <c r="Y2" t="n">
-        <v>2345.167438673965</v>
+        <v>1941.938622099438</v>
       </c>
     </row>
     <row r="3">
@@ -4383,52 +4383,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
         <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I3" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4440,7 +4440,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4449,10 +4449,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,43 +4462,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>380.4321398396066</v>
+        <v>457.9680739783734</v>
       </c>
       <c r="C4" t="n">
-        <v>380.4321398396066</v>
+        <v>457.9680739783734</v>
       </c>
       <c r="D4" t="n">
-        <v>380.4321398396066</v>
+        <v>457.9680739783734</v>
       </c>
       <c r="E4" t="n">
-        <v>380.4321398396066</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="F4" t="n">
-        <v>380.4321398396066</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143256</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4510,28 +4510,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1855.078715458475</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1663.392831285302</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T4" t="n">
-        <v>1441.626215854828</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U4" t="n">
-        <v>1152.523348980472</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V4" t="n">
-        <v>897.8388607745846</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W4" t="n">
-        <v>608.421690737624</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="X4" t="n">
-        <v>380.4321398396066</v>
+        <v>860.4091179521432</v>
       </c>
       <c r="Y4" t="n">
-        <v>380.4321398396066</v>
+        <v>639.6165388086131</v>
       </c>
     </row>
     <row r="5">
@@ -4541,40 +4541,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2038.144201386631</v>
+        <v>1530.167618932618</v>
       </c>
       <c r="C5" t="n">
-        <v>1669.18168444622</v>
+        <v>1530.167618932618</v>
       </c>
       <c r="D5" t="n">
-        <v>1310.915985839469</v>
+        <v>1171.901920325867</v>
       </c>
       <c r="E5" t="n">
-        <v>925.1277332412251</v>
+        <v>786.1136677276232</v>
       </c>
       <c r="F5" t="n">
-        <v>514.1418284516176</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4583,34 +4583,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450753</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W5" t="n">
-        <v>2424.744041450753</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X5" t="n">
-        <v>2424.744041450753</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="Y5" t="n">
-        <v>2424.744041450753</v>
+        <v>1916.76745899674</v>
       </c>
     </row>
     <row r="6">
@@ -4620,70 +4620,70 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811093</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999823</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.156415538731</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332755</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601605</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064616</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
@@ -4699,43 +4699,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>644.3338566427974</v>
+        <v>443.0505103572864</v>
       </c>
       <c r="C7" t="n">
-        <v>644.3338566427974</v>
+        <v>443.0505103572864</v>
       </c>
       <c r="D7" t="n">
-        <v>644.3338566427974</v>
+        <v>443.0505103572864</v>
       </c>
       <c r="E7" t="n">
-        <v>527.322087337517</v>
+        <v>295.1374167748933</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396066</v>
+        <v>295.1374167748933</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T7" t="n">
-        <v>1705.527932658019</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1416.425065783662</v>
+        <v>1134.908724368017</v>
       </c>
       <c r="V7" t="n">
-        <v>1161.740577577775</v>
+        <v>1134.908724368017</v>
       </c>
       <c r="W7" t="n">
-        <v>872.3234075408147</v>
+        <v>845.4915543310562</v>
       </c>
       <c r="X7" t="n">
-        <v>644.3338566427974</v>
+        <v>845.4915543310562</v>
       </c>
       <c r="Y7" t="n">
-        <v>644.3338566427974</v>
+        <v>624.6989751875261</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1252.833343223197</v>
+        <v>1685.375546116519</v>
       </c>
       <c r="C8" t="n">
-        <v>1252.833343223197</v>
+        <v>1316.413029176107</v>
       </c>
       <c r="D8" t="n">
-        <v>894.5676446164468</v>
+        <v>958.1473305693564</v>
       </c>
       <c r="E8" t="n">
-        <v>508.7793920182026</v>
+        <v>572.3590779711121</v>
       </c>
       <c r="F8" t="n">
-        <v>501.8338912689991</v>
+        <v>565.4135772219087</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>150.3411270669051</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4802,16 +4802,16 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060172</v>
@@ -4826,10 +4826,10 @@
         <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T8" t="n">
         <v>3009.337405520489</v>
@@ -4838,16 +4838,16 @@
         <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2755.806928794325</v>
+        <v>2424.744041450755</v>
       </c>
       <c r="W8" t="n">
-        <v>2403.038273524211</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X8" t="n">
-        <v>2029.572515263131</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="Y8" t="n">
-        <v>1639.433183287319</v>
+        <v>2071.97538618064</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>848.0708164780106</v>
+        <v>681.6115596545852</v>
       </c>
       <c r="C10" t="n">
-        <v>679.1346335501037</v>
+        <v>512.6753767266783</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>362.5587373143426</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>214.6456437319495</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>214.6456437319495</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H10" t="n">
         <v>66.51211643218343</v>
@@ -4963,16 +4963,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4987,25 +4987,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.60866391532</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.60866391532</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1446.505797040963</v>
       </c>
       <c r="V10" t="n">
-        <v>1767.918581386758</v>
+        <v>1191.821308835076</v>
       </c>
       <c r="W10" t="n">
-        <v>1478.501411349798</v>
+        <v>902.4041387981154</v>
       </c>
       <c r="X10" t="n">
-        <v>1250.51186045178</v>
+        <v>902.4041387981154</v>
       </c>
       <c r="Y10" t="n">
-        <v>1029.71928130825</v>
+        <v>681.6115596545852</v>
       </c>
     </row>
     <row r="11">
@@ -5015,13 +5015,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
@@ -5030,61 +5030,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>577.388077746847</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589157</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143764</v>
+        <v>1702.07903472198</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C13" t="n">
-        <v>580.8993044876688</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D13" t="n">
-        <v>430.7826650753331</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E13" t="n">
-        <v>282.8695714929399</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F13" t="n">
-        <v>135.9796239950296</v>
+        <v>198.0274703142549</v>
       </c>
       <c r="G13" t="n">
-        <v>135.9796239950296</v>
+        <v>198.0274703142549</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,55 +5264,55 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
         <v>3467.980956852889</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452619</v>
+        <v>943.510265746754</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718135</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>931.4710609784063</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C16" t="n">
-        <v>762.5348780504994</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D16" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E16" t="n">
-        <v>464.5051450557705</v>
+        <v>197.0043242297721</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2105.661370711882</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1816.58614405608</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1561.901655850193</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1561.901655850193</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1333.912104952176</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y16" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="17">
@@ -5495,19 +5495,19 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
@@ -5516,16 +5516,16 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5534,28 +5534,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M18" t="n">
-        <v>1501.8401750111</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N18" t="n">
-        <v>2129.438138565707</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>931.4710609784063</v>
+        <v>513.8536007400694</v>
       </c>
       <c r="C19" t="n">
-        <v>762.5348780504994</v>
+        <v>344.9174178121625</v>
       </c>
       <c r="D19" t="n">
-        <v>612.4182386381636</v>
+        <v>194.8007783998268</v>
       </c>
       <c r="E19" t="n">
-        <v>464.5051450557705</v>
+        <v>194.8007783998268</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578601</v>
+        <v>194.8007783998268</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>194.8007783998268</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138393</v>
       </c>
       <c r="Y19" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703091</v>
       </c>
     </row>
     <row r="20">
@@ -5732,13 +5732,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5750,25 +5750,25 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5789,10 +5789,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5838,10 +5838,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O21" t="n">
         <v>1859.536823237711</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400694</v>
       </c>
       <c r="C22" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121625</v>
       </c>
       <c r="D22" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121625</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>197.0043242297694</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>197.0043242297694</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138393</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703091</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5963,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -5993,13 +5993,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6020,19 +6020,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6066,19 +6066,19 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>429.5088224239596</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L24" t="n">
-        <v>924.8344286397182</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M24" t="n">
-        <v>1522.21291626627</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
-        <v>1859.536823237711</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
         <v>1859.536823237711</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>762.5477693179085</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>762.5477693179085</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>612.4311299055728</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>464.5180363231797</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>317.6280888252693</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6206,16 +6206,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6300,22 +6300,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
         <v>1859.536823237711</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>983.3556038098237</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C28" t="n">
-        <v>814.4194208819168</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D28" t="n">
-        <v>664.3027814695811</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E28" t="n">
-        <v>516.389687887188</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.129363765926</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2263.274529420831</v>
       </c>
       <c r="T28" t="n">
-        <v>2446.96308358026</v>
+        <v>2043.673064443772</v>
       </c>
       <c r="U28" t="n">
-        <v>2157.887856924458</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V28" t="n">
-        <v>1903.203368718571</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W28" t="n">
-        <v>1613.786198681611</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X28" t="n">
-        <v>1385.796647783593</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y28" t="n">
-        <v>1165.004068640063</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="29">
@@ -6452,37 +6452,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6534,22 +6534,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="K30" t="n">
-        <v>245.2306927803937</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L30" t="n">
-        <v>245.2306927803937</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
         <v>1307.627092998424</v>
@@ -6601,22 +6601,22 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6680,40 +6680,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6774,28 +6774,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400694</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F34" t="n">
         <v>261.0127623330919</v>
@@ -6886,22 +6886,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138393</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703091</v>
       </c>
     </row>
     <row r="35">
@@ -6932,22 +6932,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637306</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.118720444889</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O36" t="n">
-        <v>2366.028450684176</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>768.5380889459568</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>599.6019060180499</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>549.6145409888043</v>
+        <v>240.706610545884</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888043</v>
+        <v>240.706610545884</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7096,49 +7096,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038327</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797728</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910807</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570816</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832661</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854705</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1688.385853854705</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1398.968683817744</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1170.979132919727</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>950.1865537761965</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7160,22 +7160,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7248,28 +7248,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7312,13 +7312,13 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>261.0127623330919</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
         <v>93.81666304797187</v>
@@ -7385,43 +7385,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7430,7 +7430,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7485,22 +7485,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O42" t="n">
         <v>1859.536823237711</v>
@@ -7546,22 +7546,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7634,34 +7634,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,22 +7722,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O45" t="n">
         <v>1859.536823237711</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
   </sheetData>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>-9.481304630298837e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>-6.963318810448982e-13</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -23264,7 +23264,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>2.216893335571513e-12</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23416,13 +23416,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>98.5533815086367</v>
+        <v>37.12601365260154</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23555,7 +23555,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>43.26526345294901</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,7 +23704,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>126.9182872993602</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23792,7 +23792,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>166.0397529241855</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>40.32043864788753</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24029,7 +24029,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24133,16 +24133,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>137.2878198583898</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>63.3683537222893</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>43.2652634529499</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>25.21666309130995</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24458,7 +24458,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24607,19 +24607,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>114.1584408891656</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012282</v>
+        <v>65.54986409393101</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24841,19 +24841,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>45.44677382459308</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>57.2291039219422</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -25075,16 +25075,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>65.54986409393254</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>62.35543909864957</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25315,7 +25315,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>99.12798163925915</v>
+        <v>45.4467738245948</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25324,10 +25324,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25369,7 +25369,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25552,16 +25552,16 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>65.54986409393068</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>43.26526345294991</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>41.54258064659096</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26026,19 +26026,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.45968844823106</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>919628.859986491</v>
+        <v>919628.8599864908</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>919628.859986491</v>
+        <v>919628.8599864908</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>919628.859986491</v>
+        <v>919628.8599864909</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>919628.859986491</v>
+        <v>919628.8599864908</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>919628.8599864909</v>
+        <v>919628.8599864908</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>919628.859986491</v>
+        <v>919628.8599864909</v>
       </c>
     </row>
     <row r="16">
@@ -26314,13 +26314,13 @@
         <v>513151.106165177</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.1061651771</v>
+        <v>513151.106165177</v>
       </c>
       <c r="D2" t="n">
         <v>513151.1061651771</v>
       </c>
       <c r="E2" t="n">
-        <v>504466.6248062535</v>
+        <v>504466.6248062538</v>
       </c>
       <c r="F2" t="n">
         <v>504466.6248062536</v>
@@ -26329,31 +26329,31 @@
         <v>504466.6248062536</v>
       </c>
       <c r="H2" t="n">
-        <v>504466.6248062539</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="I2" t="n">
+        <v>504466.6248062537</v>
+      </c>
+      <c r="J2" t="n">
+        <v>504466.6248062537</v>
+      </c>
+      <c r="K2" t="n">
         <v>504466.6248062538</v>
-      </c>
-      <c r="J2" t="n">
-        <v>504466.6248062539</v>
-      </c>
-      <c r="K2" t="n">
-        <v>504466.6248062537</v>
       </c>
       <c r="L2" t="n">
         <v>504466.6248062537</v>
       </c>
       <c r="M2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="N2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="O2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="P2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062536</v>
       </c>
     </row>
     <row r="3">
@@ -26366,19 +26366,19 @@
         <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073548</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551167</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,10 +26418,10 @@
         <v>91573.95495316939</v>
       </c>
       <c r="C4" t="n">
-        <v>91573.95495316942</v>
+        <v>91573.95495316936</v>
       </c>
       <c r="D4" t="n">
-        <v>91573.95495316938</v>
+        <v>91573.95495316936</v>
       </c>
       <c r="E4" t="n">
         <v>12386.92018181813</v>
@@ -26436,13 +26436,13 @@
         <v>12386.92018181813</v>
       </c>
       <c r="I4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181815</v>
       </c>
       <c r="J4" t="n">
         <v>12386.92018181813</v>
       </c>
       <c r="K4" t="n">
-        <v>12386.92018181817</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="L4" t="n">
         <v>12386.92018181813</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1015101.535076979</v>
+        <v>-1015101.535076978</v>
       </c>
       <c r="C6" t="n">
-        <v>313643.2106506147</v>
+        <v>313643.2106506141</v>
       </c>
       <c r="D6" t="n">
-        <v>313643.2106506143</v>
+        <v>313643.2106506144</v>
       </c>
       <c r="E6" t="n">
-        <v>65544.71299317351</v>
+        <v>65509.97506773745</v>
       </c>
       <c r="F6" t="n">
-        <v>390957.1748005284</v>
+        <v>390922.4368750927</v>
       </c>
       <c r="G6" t="n">
-        <v>390957.1748005282</v>
+        <v>390922.436875093</v>
       </c>
       <c r="H6" t="n">
-        <v>390957.1748005286</v>
+        <v>390922.4368750927</v>
       </c>
       <c r="I6" t="n">
-        <v>390957.1748005285</v>
+        <v>390922.4368750927</v>
       </c>
       <c r="J6" t="n">
-        <v>173425.9724032512</v>
+        <v>173391.2344778152</v>
       </c>
       <c r="K6" t="n">
-        <v>390957.1748005284</v>
+        <v>390922.4368750928</v>
       </c>
       <c r="L6" t="n">
-        <v>390957.1748005284</v>
+        <v>390922.4368750927</v>
       </c>
       <c r="M6" t="n">
-        <v>305902.1468650168</v>
+        <v>305867.408939581</v>
       </c>
       <c r="N6" t="n">
-        <v>390957.1748005285</v>
+        <v>390922.4368750927</v>
       </c>
       <c r="O6" t="n">
-        <v>390957.1748005286</v>
+        <v>390922.4368750927</v>
       </c>
       <c r="P6" t="n">
-        <v>390957.1748005286</v>
+        <v>390922.4368750926</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>1089.776700593298</v>
+      </c>
+      <c r="C3" t="n">
         <v>1089.776700593299</v>
       </c>
-      <c r="C3" t="n">
-        <v>1089.776700593298</v>
-      </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.401455402293</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.401455402293</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26957,22 +26957,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697355</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697355</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697355</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27385,10 +27385,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>113.0872986988041</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>240.9947042380794</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27543,19 +27543,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>17.43847836632975</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27597,13 +27597,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>117.1605356911031</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,7 +27616,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,16 +27625,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>9.345240527139595</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,7 +27667,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27676,13 +27676,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>28.66412060437187</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27780,13 +27780,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>30.59231103434161</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>84.44177583406629</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27831,16 +27831,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,7 +27853,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27865,10 +27865,10 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>316.1378627252523</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>253.1939736318719</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27910,16 +27910,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28020,13 +28020,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.1286311465807</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>94.3554362891108</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28144,7 +28144,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>-6.536993168992922e-13</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -28263,7 +28263,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2.168102734382652e-12</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28776,7 +28776,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29007,7 +29007,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -29332,7 +29332,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -29560,7 +29560,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29958,7 +29958,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -30153,7 +30153,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>-1.571301715478522e-13</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -30168,7 +30168,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>-1.696776052995119e-12</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -31039,7 +31039,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31048,40 +31048,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31200,43 +31200,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31285,40 +31285,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31437,43 +31437,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31522,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31674,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565771</v>
+        <v>301.644515672455</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>399.9031616963288</v>
+        <v>508.3747716989719</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214697</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32315,25 +32315,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>616.5397119226058</v>
       </c>
       <c r="M18" t="n">
-        <v>575.5951359912046</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32558,13 +32558,13 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>688.8020111197787</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
@@ -32786,22 +32786,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>714.932815742495</v>
       </c>
       <c r="N24" t="n">
-        <v>472.0729312464055</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
@@ -33020,25 +33020,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>194.5189324111251</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
@@ -33257,22 +33257,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>249.1672590991333</v>
       </c>
       <c r="K30" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>581.3243739860829</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
@@ -33494,13 +33494,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33512,13 +33512,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>653.3850396373771</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33731,10 +33731,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
@@ -33749,16 +33749,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>322.8964653704906</v>
+        <v>454.8099857531869</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33901,7 +33901,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N38" t="n">
         <v>981.2715114159425</v>
@@ -33968,22 +33968,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>613.2529048371032</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -33992,7 +33992,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
@@ -34132,7 +34132,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L41" t="n">
         <v>867.846407116256</v>
@@ -34205,25 +34205,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>452.8027404478649</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
@@ -34390,7 +34390,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34442,25 +34442,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>452.3405299254388</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121327</v>
+        <v>159.0482712280106</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>261.3487819164546</v>
+        <v>369.8203919190977</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35963,25 +35963,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>477.9853321427316</v>
       </c>
       <c r="M18" t="n">
-        <v>433.4611020691863</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36206,13 +36206,13 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>546.2057666753343</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
@@ -36364,7 +36364,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36434,22 +36434,22 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>572.7987818204766</v>
       </c>
       <c r="N24" t="n">
-        <v>340.7312191630721</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
@@ -36668,25 +36668,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>55.9645526312509</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
@@ -36905,22 +36905,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>439.1903400640646</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
@@ -37142,13 +37142,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37160,13 +37160,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>510.7887951929326</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37379,10 +37379,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -37397,16 +37397,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>188.9220579561604</v>
+        <v>320.8355783388566</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,7 +37464,7 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096333</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
         <v>394.3420143191314</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37549,7 +37549,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37616,22 +37616,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>471.1188709150848</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37640,7 +37640,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>37.00975247789211</v>
@@ -37780,7 +37780,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
@@ -37853,25 +37853,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>310.2064960034205</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
@@ -38038,7 +38038,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,25 +38090,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>310.2064960034205</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>
